--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="13" t="n">
-        <v>94</v>
+        <v>186.306</v>
       </c>
       <c r="E33" s="14" t="n"/>
       <c r="F33" s="15" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>75</v>
+        <v>148.649</v>
       </c>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="15" t="n"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>70</v>
+        <v>138.739</v>
       </c>
       <c r="E35" s="14" t="n"/>
       <c r="F35" s="15" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>161</v>
+        <v>319.099</v>
       </c>
       <c r="E36" s="14" t="n"/>
       <c r="F36" s="15" t="n"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>115</v>
+        <v>227.928</v>
       </c>
       <c r="E37" s="14" t="n"/>
       <c r="F37" s="15" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>101</v>
+        <v>200.18</v>
       </c>
       <c r="E38" s="14" t="n"/>
       <c r="F38" s="15" t="n"/>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="13" t="n">
-        <v>186.306</v>
+        <v>94</v>
       </c>
       <c r="E33" s="14" t="n"/>
       <c r="F33" s="15" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>148.649</v>
+        <v>75</v>
       </c>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="15" t="n"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>138.739</v>
+        <v>70</v>
       </c>
       <c r="E35" s="14" t="n"/>
       <c r="F35" s="15" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>319.099</v>
+        <v>161</v>
       </c>
       <c r="E36" s="14" t="n"/>
       <c r="F36" s="15" t="n"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>227.928</v>
+        <v>115</v>
       </c>
       <c r="E37" s="14" t="n"/>
       <c r="F37" s="15" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>200.18</v>
+        <v>101</v>
       </c>
       <c r="E38" s="14" t="n"/>
       <c r="F38" s="15" t="n"/>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA UNION DISMAY.xlsx
@@ -755,7 +755,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="13" t="n">
-        <v>94</v>
+        <v>203.074</v>
       </c>
       <c r="E33" s="14" t="n"/>
       <c r="F33" s="15" t="n"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>75</v>
+        <v>162.027</v>
       </c>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="15" t="n"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="13" t="n">
-        <v>70</v>
+        <v>151.226</v>
       </c>
       <c r="E35" s="14" t="n"/>
       <c r="F35" s="15" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="13" t="n">
-        <v>161</v>
+        <v>347.818</v>
       </c>
       <c r="E36" s="14" t="n"/>
       <c r="F36" s="15" t="n"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="13" t="n">
-        <v>115</v>
+        <v>248.442</v>
       </c>
       <c r="E37" s="14" t="n"/>
       <c r="F37" s="15" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="13" t="n">
-        <v>101</v>
+        <v>218.196</v>
       </c>
       <c r="E38" s="14" t="n"/>
       <c r="F38" s="15" t="n"/>
@@ -949,17 +949,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
